--- a/LibSelenium/SeleniumBasics/Arquivos_Download/acoes.xlsx
+++ b/LibSelenium/SeleniumBasics/Arquivos_Download/acoes.xlsx
@@ -2,30 +2,66 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Downloads\EstudosPy\LibSelenium\SeleniumBasics\Arquivos_Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E4B203E-3858-440E-B032-D7691BDBE454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30016914-92F2-41AF-BCF4-8DCC55A3C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
-    <sheet name="Ações" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ações" sheetId="2" r:id="rId2"/>
+    <sheet name="ValoresYahoo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="538">
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Contagem de Código</t>
+  </si>
+  <si>
+    <t>Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>Telecomunicações</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Bens Industriais</t>
+  </si>
+  <si>
+    <t>Petróleo, Gás e Biocombustíveis</t>
+  </si>
+  <si>
+    <t>Consumo Cíclico</t>
+  </si>
+  <si>
+    <t>Materiais Básicos</t>
+  </si>
+  <si>
+    <t>Consumo não Cíclico</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Utilidade Pública</t>
+  </si>
   <si>
     <t>Código</t>
   </si>
@@ -42,9 +78,6 @@
     <t>Margem Liquida</t>
   </si>
   <si>
-    <t>Setor</t>
-  </si>
-  <si>
     <t>PETR4</t>
   </si>
   <si>
@@ -60,9 +93,6 @@
     <t>25,53%</t>
   </si>
   <si>
-    <t>Petróleo, Gás e Biocombustíveis</t>
-  </si>
-  <si>
     <t>VALE3</t>
   </si>
   <si>
@@ -78,9 +108,6 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>Materiais Básicos</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
@@ -96,9 +123,6 @@
     <t>8,30%</t>
   </si>
   <si>
-    <t>Financeiro</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
@@ -114,9 +138,6 @@
     <t>18,29%</t>
   </si>
   <si>
-    <t>Consumo não Cíclico</t>
-  </si>
-  <si>
     <t>BPAC11</t>
   </si>
   <si>
@@ -177,9 +198,6 @@
     <t>16,23%</t>
   </si>
   <si>
-    <t>Bens Industriais</t>
-  </si>
-  <si>
     <t>SANB11</t>
   </si>
   <si>
@@ -225,9 +243,6 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>Utilidade Pública</t>
-  </si>
-  <si>
     <t>VIVT3</t>
   </si>
   <si>
@@ -243,9 +258,6 @@
     <t>8,89%</t>
   </si>
   <si>
-    <t>Telecomunicações</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
@@ -306,9 +318,6 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>Consumo Cíclico</t>
-  </si>
-  <si>
     <t>RDOR3</t>
   </si>
   <si>
@@ -324,9 +333,6 @@
     <t>4,24%</t>
   </si>
   <si>
-    <t>Saúde</t>
-  </si>
-  <si>
     <t>JBSS3</t>
   </si>
   <si>
@@ -780,9 +786,6 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>Tecnologia da Informação</t>
-  </si>
-  <si>
     <t>TRPL4</t>
   </si>
   <si>
@@ -1248,14 +1251,404 @@
     <t>24,53%</t>
   </si>
   <si>
-    <t>Contagem de Código</t>
+    <t>Nome da empresa</t>
+  </si>
+  <si>
+    <t>Valor da empresa</t>
+  </si>
+  <si>
+    <t>Petróleo Brasileiro S.A. - Petrobras (PETR4.SA)</t>
+  </si>
+  <si>
+    <t>747.76B</t>
+  </si>
+  <si>
+    <t>Vale S.A. (VALE3.SA)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Itaú Unibanco Holding S.A. (ITUB4.SA)</t>
+  </si>
+  <si>
+    <t>Ambev S.A. (ABEV3.SA)</t>
+  </si>
+  <si>
+    <t>Banco BTG Pactual S.A. (BPAC11.SA)</t>
+  </si>
+  <si>
+    <t>Banco Bradesco S.A. (BBDC3.SA)</t>
+  </si>
+  <si>
+    <t>Banco do Brasil S.A. (BBAS3.SA)</t>
+  </si>
+  <si>
+    <t>WEG S.A. (WEGE3.SA)</t>
+  </si>
+  <si>
+    <t>Banco Santander (Brasil) S.A. (SANB11.SA)</t>
+  </si>
+  <si>
+    <t>Itaúsa S.A. (ITSA4.SA)</t>
+  </si>
+  <si>
+    <t>Centrais Elétricas Brasileiras S.A. - Eletrobrás (ELET3.SA)</t>
+  </si>
+  <si>
+    <t>137.14B</t>
+  </si>
+  <si>
+    <t>Telefônica Brasil S.A. (VIVT3.SA)</t>
+  </si>
+  <si>
+    <t>96.62B</t>
+  </si>
+  <si>
+    <t>B3 S.A. - Brasil, Bolsa, Balcão (B3SA3.SA)</t>
+  </si>
+  <si>
+    <t>75.60B</t>
+  </si>
+  <si>
+    <t>Suzano S.A. (SUZB3.SA)</t>
+  </si>
+  <si>
+    <t>BB Seguridade Participações S.A. (BBSE3.SA)</t>
+  </si>
+  <si>
+    <t>Localiza Rent a Car S.A. (RENT3.SA)</t>
+  </si>
+  <si>
+    <t>93.41B</t>
+  </si>
+  <si>
+    <t>Rede D'Or São Luiz S.A. (RDOR3.SA)</t>
+  </si>
+  <si>
+    <t>JBS S.A. (JBSS3.SA)</t>
+  </si>
+  <si>
+    <t>144.01B</t>
+  </si>
+  <si>
+    <t>Companhia de Saneamento Básico do Estado de São Paulo - SABESP (SBSP3.SA)</t>
+  </si>
+  <si>
+    <t>65.48B</t>
+  </si>
+  <si>
+    <t>Raia Drogasil S.A. (RADL3.SA)</t>
+  </si>
+  <si>
+    <t>CPFL Energia S.A. (CPFE3.SA)</t>
+  </si>
+  <si>
+    <t>66.34B</t>
+  </si>
+  <si>
+    <t>CSN Mineração S.A. (CMIN3.SA)</t>
+  </si>
+  <si>
+    <t>41.05B</t>
+  </si>
+  <si>
+    <t>TIM S.A. (TIMS3.SA)</t>
+  </si>
+  <si>
+    <t>56.19B</t>
+  </si>
+  <si>
+    <t>Raízen S.A. (RAIZ4.SA)</t>
+  </si>
+  <si>
+    <t>Rumo S.A. (RAIL3.SA)</t>
+  </si>
+  <si>
+    <t>57.99B</t>
+  </si>
+  <si>
+    <t>Prio S.A. (PRIO3.SA)</t>
+  </si>
+  <si>
+    <t>46.96B</t>
+  </si>
+  <si>
+    <t>Equatorial Energia S.A. (EQTL3.SA)</t>
+  </si>
+  <si>
+    <t>75.09B</t>
+  </si>
+  <si>
+    <t>Gerdau S.A. (GGBR3.SA)</t>
+  </si>
+  <si>
+    <t>46.07B</t>
+  </si>
+  <si>
+    <t>Companhia Paranaense de Energia - COPEL (CPLE6.SA)</t>
+  </si>
+  <si>
+    <t>38.70B</t>
+  </si>
+  <si>
+    <t>Caixa Seguridade Participações S.A. (CXSE3.SA)</t>
+  </si>
+  <si>
+    <t>Engie Brasil Energia S.A. (EGIE3.SA)</t>
+  </si>
+  <si>
+    <t>Cosan S.A. (CSAN3.SA)</t>
+  </si>
+  <si>
+    <t>78.38B</t>
+  </si>
+  <si>
+    <t>Hapvida Participações e Investimentos S.A. (HAPV3.SA)</t>
+  </si>
+  <si>
+    <t>40.83B</t>
+  </si>
+  <si>
+    <t>Ultrapar Participações S.A. (UGPA3.SA)</t>
+  </si>
+  <si>
+    <t>37.19B</t>
+  </si>
+  <si>
+    <t>CCR S.A. (CCRO3.SA)</t>
+  </si>
+  <si>
+    <t>Companhia Energética de Minas Gerais - CEMIG (CMIG4.SA)</t>
+  </si>
+  <si>
+    <t>Vibra Energia S.A. (VBBR3.SA)</t>
+  </si>
+  <si>
+    <t>35.02B</t>
+  </si>
+  <si>
+    <t>Companhia Siderúrgica Nacional (CSNA3.SA)</t>
+  </si>
+  <si>
+    <t>53.37B</t>
+  </si>
+  <si>
+    <t>Neoenergia S.A. (NEOE3.SA)</t>
+  </si>
+  <si>
+    <t>62.81B</t>
+  </si>
+  <si>
+    <t>Atacadão S.A. (CRFB3.SA)</t>
+  </si>
+  <si>
+    <t>53.54B</t>
+  </si>
+  <si>
+    <t>Energisa S.A. (ENGI11.SA)</t>
+  </si>
+  <si>
+    <t>Klabin S.A. (KLBN11.SA)</t>
+  </si>
+  <si>
+    <t>141.61B</t>
+  </si>
+  <si>
+    <t>Natura &amp;Co Holding S.A. (NTCO3.SA)</t>
+  </si>
+  <si>
+    <t>24.08B</t>
+  </si>
+  <si>
+    <t>BRF S.A. (BRFS3.SA)</t>
+  </si>
+  <si>
+    <t>Hypera S.A. (HYPE3.SA)</t>
+  </si>
+  <si>
+    <t>29.95B</t>
+  </si>
+  <si>
+    <t>Eneva S.A. (ENEV3.SA)</t>
+  </si>
+  <si>
+    <t>46.13B</t>
+  </si>
+  <si>
+    <t>TOTVS S.A. (TOTS3.SA)</t>
+  </si>
+  <si>
+    <t>18.14B</t>
+  </si>
+  <si>
+    <t>CTEEP - Companhia de Transmissão de Energia Elétrica Paulista S.A. (TRPL4.SA)</t>
+  </si>
+  <si>
+    <t>Porto Seguro S.A. (PSSA3.SA)</t>
+  </si>
+  <si>
+    <t>17.11B</t>
+  </si>
+  <si>
+    <t>Sendas Distribuidora S.A. (ASAI3.SA)</t>
+  </si>
+  <si>
+    <t>36.97B</t>
+  </si>
+  <si>
+    <t>Multiplan Empreendimentos Imobiliários S.A. (MULT3.SA)</t>
+  </si>
+  <si>
+    <t>18.15B</t>
+  </si>
+  <si>
+    <t>Equatorial Pará Distribuidora de Energia S.A. (EQPA3.SA)</t>
+  </si>
+  <si>
+    <t>20.70B</t>
+  </si>
+  <si>
+    <t>Lojas Renner S.A. (LREN3.SA)</t>
+  </si>
+  <si>
+    <t>17.53B</t>
+  </si>
+  <si>
+    <t>Embraer S.A. (EMBR3.SA)</t>
+  </si>
+  <si>
+    <t>Companhia de Gás de São Paulo - COMGÁS (CGAS3.SA)</t>
+  </si>
+  <si>
+    <t>Braskem S.A. (BRKM5.SA)</t>
+  </si>
+  <si>
+    <t>57.52B</t>
+  </si>
+  <si>
+    <t>Grupo Mateus S.A. (GMAT3.SA)</t>
+  </si>
+  <si>
+    <t>17.89B</t>
+  </si>
+  <si>
+    <t>Smartfit Escola de Ginástica e Dança S.A. (SMFT3.SA)</t>
+  </si>
+  <si>
+    <t>19.24B</t>
+  </si>
+  <si>
+    <t>Rede Energia Participações S.A. (REDE3.SA)</t>
+  </si>
+  <si>
+    <t>24.80B</t>
+  </si>
+  <si>
+    <t>Magazine Luiza S.A. (MGLU3.SA)</t>
+  </si>
+  <si>
+    <t>Track &amp; Field Co S.A. (TFCO4.SA)</t>
+  </si>
+  <si>
+    <t>2.23B</t>
+  </si>
+  <si>
+    <t>Auren Energia S.A. (AURE3.SA)</t>
+  </si>
+  <si>
+    <t>14.81B</t>
+  </si>
+  <si>
+    <t>Transmissora Aliança de Energia Elétrica S.A. (TAEE11.SA)</t>
+  </si>
+  <si>
+    <t>7.46B</t>
+  </si>
+  <si>
+    <t>Usinas Siderúrgicas de Minas Gerais S.A. (USIM5.SA)</t>
+  </si>
+  <si>
+    <t>11.36B</t>
+  </si>
+  <si>
+    <t>M. Dias Branco S.A. Indústria e Comércio de Alimentos (MDIA3.SA)</t>
+  </si>
+  <si>
+    <t>12.84B</t>
+  </si>
+  <si>
+    <t>Cielo S.A. (CIEL3.SA)</t>
+  </si>
+  <si>
+    <t>18.72B</t>
+  </si>
+  <si>
+    <t>GPS Participações e Empreendimentos S.A. (GGPS3.SA)</t>
+  </si>
+  <si>
+    <t>Companhia de Eletricidade do Estado da Bahia - COELBA (CEEB3.SA)</t>
+  </si>
+  <si>
+    <t>24.84B</t>
+  </si>
+  <si>
+    <t>Metalurgica Gerdau S.A. (GOAU4.SA)</t>
+  </si>
+  <si>
+    <t>17.86B</t>
+  </si>
+  <si>
+    <t>Vamos Locação de Caminhões, Máquinas e Equipamentos S.A. (VAMO3.SA)</t>
+  </si>
+  <si>
+    <t>Banco Pan S.A. (BPAN4.SA)</t>
+  </si>
+  <si>
+    <t>São Martinho S.A. (SMTO3.SA)</t>
+  </si>
+  <si>
+    <t>14.97B</t>
+  </si>
+  <si>
+    <t>Bradespar S.A. (BRAP4.SA)</t>
+  </si>
+  <si>
+    <t>Fleury S.A. (FLRY3.SA)</t>
+  </si>
+  <si>
+    <t>12.67B</t>
+  </si>
+  <si>
+    <t>Banco do Nordeste do Brasil S.A. (BNBR3.SA)</t>
+  </si>
+  <si>
+    <t>Cyrela Brazil Realty S.A. Empreendimentos e Participações (CYRE3.SA)</t>
+  </si>
+  <si>
+    <t>Alupar Investimento S.A. (ALUP11.SA)</t>
+  </si>
+  <si>
+    <t>Marfrig Global Foods S.A. (MRFG3.SA)</t>
+  </si>
+  <si>
+    <t>42.28B</t>
+  </si>
+  <si>
+    <t>Companhia de Saneamento do Paraná - SANEPAR (SAPR11.SA)</t>
+  </si>
+  <si>
+    <t>7.01B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,6 +1676,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1304,7 +1704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1340,11 +1740,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1356,9 +1772,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -1393,18 +1821,15 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1412,8 +1837,8 @@
           <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="top"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1444,10 +1869,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
@@ -1462,7 +1887,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1485,28 +1910,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -1518,16 +1924,9 @@
             <a:solidFill>
               <a:schemeClr val="accent5"/>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
           </a:ln>
-          <a:effectLst>
-            <a:glow rad="63500">
-              <a:schemeClr val="accent5">
-                <a:satMod val="175000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:glow>
-          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1538,8 +1937,8 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1548,7 +1947,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -1601,16 +2000,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1618,8 +2010,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1628,7 +2020,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -1652,20 +2044,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1748,7 +2127,541 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9188-4645-AC50-381AF3BAD83F}"/>
+              <c16:uniqueId val="{00000000-BAE7-48AD-8AB8-1340336F67DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="113290991"/>
+        <c:axId val="1276386271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113290991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276386271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276386271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113290991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[acoes.xlsx]Planilha1!Tabela dinâmica4</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Contagem de Ações por Setor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Tecnologia da Informação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telecomunicações</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Saúde</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bens Industriais</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Petróleo, Gás e Biocombustíveis</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Consumo Cíclico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Materiais Básicos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Consumo não Cíclico</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Financeiro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Utilidade Pública</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E89-4AF1-B9DC-B752AB1E56E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1946,1270 +2859,50 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="7"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[acoes.xlsx]Planilha1!Tabela dinâmica4</c:name>
-    <c:fmtId val="4"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Contagem de</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Ações</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t> por Setor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-          </a:ln>
-          <a:effectLst>
-            <a:glow rad="63500">
-              <a:schemeClr val="accent5">
-                <a:satMod val="175000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:glow>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-          </a:ln>
-          <a:effectLst>
-            <a:glow rad="63500">
-              <a:schemeClr val="accent5">
-                <a:satMod val="175000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:glow>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-          </a:ln>
-          <a:effectLst>
-            <a:glow rad="63500">
-              <a:schemeClr val="accent5">
-                <a:satMod val="175000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:glow>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Tecnologia da Informação</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Telecomunicações</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Saúde</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bens Industriais</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Petróleo, Gás e Biocombustíveis</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Consumo Cíclico</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Materiais Básicos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Consumo não Cíclico</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Financeiro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Utilidade Pública</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE54-4EB5-91E7-270B27FCCCCB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-50"/>
-        <c:axId val="113290991"/>
-        <c:axId val="1276386271"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="113290991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1276386271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1276386271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113290991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
-  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="10800000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst/>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3776,10 +3469,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2729C8-0AEF-F172-EC1E-2798906CF18C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3804,29 +3497,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E08882-7DF0-4F17-8BED-2A7FD67E2A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3844,7 +3535,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pedro Elorriaga" refreshedDate="45293.672922916667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="81" xr:uid="{9FB91183-6CEB-418E-80F0-4E8F7B290D1F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pedro Elorriaga" refreshedDate="45293.672922916667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="81" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -4203,7 +3894,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <r>
     <s v="PETR4"/>
     <x v="0"/>
@@ -4856,16 +4547,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB1A0572-D512-4D3A-903A-4BF7AC44B703}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="80">
         <item x="72"/>
@@ -4949,11 +4634,6 @@
         <item x="74"/>
         <item x="73"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="81">
@@ -5039,11 +4719,6 @@
         <item x="25"/>
         <item x="59"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="72">
@@ -5120,11 +4795,6 @@
         <item x="18"/>
         <item x="7"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="78">
@@ -5207,11 +4877,6 @@
         <item x="22"/>
         <item x="37"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="10">
@@ -5235,11 +4900,6 @@
           </references>
         </pivotArea>
       </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
@@ -5314,9 +4974,6 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
     </ext>
@@ -5325,15 +4982,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FC9D041-878D-44EC-A831-D319946B9FD7}" name="Tabela1" displayName="Tabela1" ref="B1:G82" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="B1:G82" xr:uid="{9FC9D041-878D-44EC-A831-D319946B9FD7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B1:G82" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="B1:G82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{44BAB53B-8455-4EE9-A0C1-781BB09FFBA1}" name="Código"/>
-    <tableColumn id="2" xr3:uid="{72A0360F-16BF-4443-AA33-DFC95300C69B}" name="Valor de Mercado" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B807C1AD-7655-4606-8DF5-A9F7E804AAB6}" name="P/L"/>
-    <tableColumn id="4" xr3:uid="{4E9E1402-7AA8-4841-A04F-83AF78315063}" name="P/VP"/>
-    <tableColumn id="5" xr3:uid="{186F68F1-86EA-4672-BFB3-50A33B094430}" name="Margem Liquida"/>
-    <tableColumn id="6" xr3:uid="{79362C06-9203-4FA9-8892-F41C4DB03F26}" name="Setor"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Valor de Mercado" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="P/L"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="P/VP"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Margem Liquida"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Setor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5623,7 +5280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDA2A57-3DA8-47F7-8FD6-559CE8981821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5638,89 +5295,89 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>19</v>
       </c>
     </row>
@@ -5734,16 +5391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -5755,22 +5412,22 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5778,22 +5435,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5801,22 +5458,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5824,22 +5481,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -5848,22 +5505,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5871,22 +5528,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5894,22 +5551,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5917,22 +5574,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5940,22 +5597,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5963,22 +5620,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5986,22 +5643,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6009,22 +5666,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6032,22 +5689,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -6056,22 +5713,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6079,22 +5736,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6102,22 +5759,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6125,22 +5782,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6148,22 +5805,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6171,22 +5828,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -6194,22 +5851,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6217,22 +5874,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6240,22 +5897,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6263,22 +5920,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6286,22 +5943,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6309,22 +5966,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6332,22 +5989,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6355,22 +6012,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6378,22 +6035,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6401,22 +6058,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6424,22 +6081,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -6448,22 +6105,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -6471,22 +6128,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -6494,22 +6151,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N33" s="5"/>
     </row>
@@ -6518,22 +6175,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -6541,22 +6198,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -6564,22 +6221,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -6587,22 +6244,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -6610,22 +6267,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -6633,22 +6290,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -6656,22 +6313,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -6679,22 +6336,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -6702,22 +6359,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -6725,22 +6382,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -6748,22 +6405,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -6771,22 +6428,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -6794,22 +6451,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -6817,22 +6474,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -6840,22 +6497,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,22 +6520,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6886,22 +6543,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6909,22 +6566,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6932,22 +6589,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6955,22 +6612,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -6978,22 +6635,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -7001,22 +6658,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7024,22 +6681,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -7047,22 +6704,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7070,22 +6727,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -7093,22 +6750,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7116,22 +6773,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7139,22 +6796,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -7162,22 +6819,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -7185,22 +6842,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -7208,22 +6865,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7231,22 +6888,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -7254,22 +6911,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7277,22 +6934,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -7300,22 +6957,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -7323,22 +6980,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -7346,22 +7003,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -7369,22 +7026,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -7392,22 +7049,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E72" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -7415,22 +7072,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D73" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -7438,22 +7095,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -7461,22 +7118,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -7484,22 +7141,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -7507,22 +7164,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F77" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -7530,22 +7187,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -7553,22 +7210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E79" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F79" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7576,22 +7233,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D80" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E80" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F80" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G80" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7599,22 +7256,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E81" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7622,22 +7279,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7650,4 +7307,926 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>